--- a/1_analysis/OUTPUT_figures_tables/Table_12_Cox_Model_Report_Over 18 years (Group E).xlsx
+++ b/1_analysis/OUTPUT_figures_tables/Table_12_Cox_Model_Report_Over 18 years (Group E).xlsx
@@ -1,46 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font/>
+    <font>
+      <name val="SourceSansPro"/>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="SourceSansPro"/>
+      <b val="1"/>
+      <color rgb="00ffffff"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="SourceSansPro"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00007932"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00368f3f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c9c9c9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +81,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="number_format_style" xfId="1" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,952 +463,570 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="46" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>coef</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>exp(coef)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>se(coef)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>z</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt;|z|)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lower .95</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>upper .95</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="1" ht="40" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Cox Model Report Over 18 years (Group E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="25" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Hazard Ratio</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Lower CI (95%)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Upper CI (95%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Vaccinated</t>
         </is>
       </c>
-      <c r="B2">
-        <v>-0.2216249681879657</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="5" t="n">
         <v>0.8012157894059899</v>
       </c>
-      <c r="D2">
-        <v>0.02610504541956027</v>
-      </c>
-      <c r="E2">
-        <v>-8.489736931156772</v>
-      </c>
-      <c r="F2">
-        <v>2.071053733596975e-17</v>
-      </c>
-      <c r="G2">
+      <c r="C3" s="5" t="n">
         <v>0.7612526970624814</v>
       </c>
-      <c r="H2">
+      <c r="D3" s="5" t="n">
         <v>0.8432768037086829</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Sex Male</t>
         </is>
       </c>
-      <c r="B3">
-        <v>-0.1282755044513966</v>
-      </c>
-      <c r="C3">
+      <c r="B4" s="7" t="n">
         <v>0.8796110090106716</v>
       </c>
-      <c r="D3">
-        <v>0.02670725813624746</v>
-      </c>
-      <c r="E3">
-        <v>-4.80302035487871</v>
-      </c>
-      <c r="F3">
-        <v>1.562899904843275e-06</v>
-      </c>
-      <c r="G3">
+      <c r="C4" s="7" t="n">
         <v>0.834751862858658</v>
       </c>
-      <c r="H3">
+      <c r="D4" s="7" t="n">
         <v>0.9268808631623012</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B4">
-        <v>0.06439022627480885</v>
-      </c>
-      <c r="C4">
+      <c r="B5" s="5" t="n">
         <v>1.066508497207869</v>
       </c>
-      <c r="D4">
-        <v>0.001276137107509339</v>
-      </c>
-      <c r="E4">
-        <v>50.45713810523109</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="C5" s="5" t="n">
         <v>1.063844297744351</v>
       </c>
-      <c r="H4">
+      <c r="D5" s="5" t="n">
         <v>1.069179368661636</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Medical Center Type Regional</t>
         </is>
       </c>
-      <c r="B5">
-        <v>-0.0828817248166102</v>
-      </c>
-      <c r="C5">
+      <c r="B6" s="7" t="n">
         <v>0.9204600083585038</v>
       </c>
-      <c r="D5">
-        <v>0.03043320266651153</v>
-      </c>
-      <c r="E5">
-        <v>-2.723398050636736</v>
-      </c>
-      <c r="F5">
-        <v>0.006461415471022622</v>
-      </c>
-      <c r="G5">
+      <c r="C6" s="7" t="n">
         <v>0.8671617940211743</v>
       </c>
-      <c r="H5">
+      <c r="D6" s="7" t="n">
         <v>0.9770340815622337</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>Medical Center Type Specialty</t>
         </is>
       </c>
-      <c r="B6">
-        <v>-0.1181800192654877</v>
-      </c>
-      <c r="C6">
+      <c r="B7" s="5" t="n">
         <v>0.8885360846030779</v>
       </c>
-      <c r="D6">
-        <v>0.03079970435845649</v>
-      </c>
-      <c r="E6">
-        <v>-3.837050443409197</v>
-      </c>
-      <c r="F6">
-        <v>0.0001245209017199507</v>
-      </c>
-      <c r="G6">
+      <c r="C7" s="5" t="n">
         <v>0.8364853011617801</v>
       </c>
-      <c r="H6">
+      <c r="D7" s="5" t="n">
         <v>0.9438257582592904</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>ICU Stay</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1.330954074046407</v>
-      </c>
-      <c r="C7">
+      <c r="B8" s="7" t="n">
         <v>3.784652504341752</v>
       </c>
-      <c r="D7">
-        <v>0.03492630788689595</v>
-      </c>
-      <c r="E7">
-        <v>38.10749416618896</v>
-      </c>
-      <c r="F7">
-        <v>9.627407640770656e-318</v>
-      </c>
-      <c r="G7">
+      <c r="C8" s="7" t="n">
         <v>3.534245248946716</v>
       </c>
-      <c r="H7">
+      <c r="D8" s="7" t="n">
         <v>4.052801537439724</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Active Cancer</t>
         </is>
       </c>
-      <c r="B8">
-        <v>0.2851476949573059</v>
-      </c>
-      <c r="C8">
+      <c r="B9" s="5" t="n">
         <v>1.32995844177174</v>
       </c>
-      <c r="D8">
-        <v>0.02954662697888332</v>
-      </c>
-      <c r="E8">
-        <v>9.650769787058881</v>
-      </c>
-      <c r="F8">
-        <v>4.878810503039622e-22</v>
-      </c>
-      <c r="G8">
+      <c r="C9" s="5" t="n">
         <v>1.255127762528887</v>
       </c>
-      <c r="H8">
+      <c r="D9" s="5" t="n">
         <v>1.40925052384793</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Asthma</t>
         </is>
       </c>
-      <c r="B9">
-        <v>-0.1058343578247702</v>
-      </c>
-      <c r="C9">
+      <c r="B10" s="7" t="n">
         <v>0.8995736430706734</v>
       </c>
-      <c r="D9">
-        <v>0.04093547019759355</v>
-      </c>
-      <c r="E9">
-        <v>-2.585394947558019</v>
-      </c>
-      <c r="F9">
-        <v>0.009726750864665944</v>
-      </c>
-      <c r="G9">
+      <c r="C10" s="7" t="n">
         <v>0.8302184624095112</v>
       </c>
-      <c r="H9">
+      <c r="D10" s="7" t="n">
         <v>0.9747226494564314</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Congestive Heart Failure</t>
         </is>
       </c>
-      <c r="B10">
-        <v>-0.0777970347297294</v>
-      </c>
-      <c r="C10">
+      <c r="B11" s="5" t="n">
         <v>0.9251521812515614</v>
       </c>
-      <c r="D10">
-        <v>0.02907766956426024</v>
-      </c>
-      <c r="E10">
-        <v>-2.675490708008829</v>
-      </c>
-      <c r="F10">
-        <v>0.007461994168039998</v>
-      </c>
-      <c r="G10">
+      <c r="C11" s="5" t="n">
         <v>0.8739009669871417</v>
       </c>
-      <c r="H10">
+      <c r="D11" s="5" t="n">
         <v>0.9794090987510206</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Chronic Liver</t>
         </is>
       </c>
-      <c r="B11">
-        <v>0.09257252037793048</v>
-      </c>
-      <c r="C11">
+      <c r="B12" s="7" t="n">
         <v>1.096992693000402</v>
       </c>
-      <c r="D11">
-        <v>0.0420839299007827</v>
-      </c>
-      <c r="E11">
-        <v>2.199711875677484</v>
-      </c>
-      <c r="F11">
-        <v>0.02782734369302419</v>
-      </c>
-      <c r="G11">
+      <c r="C12" s="7" t="n">
         <v>1.010140604403255</v>
       </c>
-      <c r="H11">
+      <c r="D12" s="7" t="n">
         <v>1.191312341322211</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Chronic Kidney Disease</t>
         </is>
       </c>
-      <c r="B12">
-        <v>-0.2353885067030712</v>
-      </c>
-      <c r="C12">
+      <c r="B13" s="5" t="n">
         <v>0.7902637672100536</v>
       </c>
-      <c r="D12">
-        <v>0.03144532796899253</v>
-      </c>
-      <c r="E12">
-        <v>-7.485643238804252</v>
-      </c>
-      <c r="F12">
-        <v>7.119755843137487e-14</v>
-      </c>
-      <c r="G12">
+      <c r="C13" s="5" t="n">
         <v>0.7430289903897624</v>
       </c>
-      <c r="H12">
+      <c r="D13" s="5" t="n">
         <v>0.8405012857404529</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition COPD</t>
         </is>
       </c>
-      <c r="B13">
-        <v>0.04301033876329832</v>
-      </c>
-      <c r="C13">
+      <c r="B14" s="7" t="n">
         <v>1.043948687933199</v>
       </c>
-      <c r="D13">
-        <v>0.02881586257175991</v>
-      </c>
-      <c r="E13">
-        <v>1.49259244474081</v>
-      </c>
-      <c r="F13">
-        <v>0.1355439022399547</v>
-      </c>
-      <c r="G13">
+      <c r="C14" s="7" t="n">
         <v>0.9866225698398159</v>
       </c>
-      <c r="H13">
+      <c r="D14" s="7" t="n">
         <v>1.104605647947409</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Dementia</t>
         </is>
       </c>
-      <c r="B14">
-        <v>0.009323685313642357</v>
-      </c>
-      <c r="C14">
+      <c r="B15" s="5" t="n">
         <v>1.009367286269402</v>
       </c>
-      <c r="D14">
-        <v>0.02866009467516438</v>
-      </c>
-      <c r="E14">
-        <v>0.325319417793894</v>
-      </c>
-      <c r="F14">
-        <v>0.7449393361893717</v>
-      </c>
-      <c r="G14">
+      <c r="C15" s="5" t="n">
         <v>0.9542314107360786</v>
       </c>
-      <c r="H14">
+      <c r="D15" s="5" t="n">
         <v>1.067688934914597</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Diabetes</t>
         </is>
       </c>
-      <c r="B15">
-        <v>-0.03747053807246439</v>
-      </c>
-      <c r="C15">
+      <c r="B16" s="7" t="n">
         <v>0.9632227957029923</v>
       </c>
-      <c r="D15">
-        <v>0.02709760801720021</v>
-      </c>
-      <c r="E15">
-        <v>-1.38279873443737</v>
-      </c>
-      <c r="F15">
-        <v>0.1667265871599384</v>
-      </c>
-      <c r="G15">
+      <c r="C16" s="7" t="n">
         <v>0.9134004606988698</v>
       </c>
-      <c r="H15">
+      <c r="D16" s="7" t="n">
         <v>1.015762739436328</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Hyperlipidemia</t>
         </is>
       </c>
-      <c r="B16">
-        <v>-0.1209216383721972</v>
-      </c>
-      <c r="C16">
+      <c r="B17" s="5" t="n">
         <v>0.8861033933766744</v>
       </c>
-      <c r="D16">
-        <v>0.02524920234542025</v>
-      </c>
-      <c r="E16">
-        <v>-4.789127066983573</v>
-      </c>
-      <c r="F16">
-        <v>1.675083915125687e-06</v>
-      </c>
-      <c r="G16">
+      <c r="C17" s="5" t="n">
         <v>0.8433196885811748</v>
       </c>
-      <c r="H16">
+      <c r="D17" s="5" t="n">
         <v>0.9310576219021585</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Hypertension</t>
         </is>
       </c>
-      <c r="B17">
-        <v>-0.03531409333041521</v>
-      </c>
-      <c r="C17">
+      <c r="B18" s="7" t="n">
         <v>0.9653021736622386</v>
       </c>
-      <c r="D17">
-        <v>0.03514031777400484</v>
-      </c>
-      <c r="E17">
-        <v>-1.004945190237833</v>
-      </c>
-      <c r="F17">
-        <v>0.3149232426807939</v>
-      </c>
-      <c r="G17">
+      <c r="C18" s="7" t="n">
         <v>0.9010560176330511</v>
       </c>
-      <c r="H17">
+      <c r="D18" s="7" t="n">
         <v>1.034129142075732</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Ischemic Heart Disease</t>
         </is>
       </c>
-      <c r="B18">
-        <v>0.1190267413721975</v>
-      </c>
-      <c r="C18">
+      <c r="B19" s="5" t="n">
         <v>1.126400039368308</v>
       </c>
-      <c r="D18">
-        <v>0.03248215698883428</v>
-      </c>
-      <c r="E18">
-        <v>3.664373071440818</v>
-      </c>
-      <c r="F18">
-        <v>0.0002479451607973804</v>
-      </c>
-      <c r="G18">
+      <c r="C19" s="5" t="n">
         <v>1.056924085440868</v>
       </c>
-      <c r="H18">
+      <c r="D19" s="5" t="n">
         <v>1.200442932625277</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Preexisting Condition Obesity</t>
         </is>
       </c>
-      <c r="B19">
-        <v>-0.05129678903062024</v>
-      </c>
-      <c r="C19">
+      <c r="B20" s="7" t="n">
         <v>0.9499966800948847</v>
       </c>
-      <c r="D19">
-        <v>0.03044516365778243</v>
-      </c>
-      <c r="E19">
-        <v>-1.684891223027067</v>
-      </c>
-      <c r="F19">
-        <v>0.09200956026941048</v>
-      </c>
-      <c r="G19">
+      <c r="C20" s="7" t="n">
         <v>0.8949671965277322</v>
       </c>
-      <c r="H19">
+      <c r="D20" s="7" t="n">
         <v>1.008409800596906</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>Preexisting Condition Stroke</t>
         </is>
       </c>
-      <c r="B20">
-        <v>-0.0303595326846269</v>
-      </c>
-      <c r="C20">
+      <c r="B21" s="5" t="n">
         <v>0.9700966893747462</v>
       </c>
-      <c r="D20">
-        <v>0.04594022164709045</v>
-      </c>
-      <c r="E20">
-        <v>-0.6608486332052704</v>
-      </c>
-      <c r="F20">
-        <v>0.5087093905352847</v>
-      </c>
-      <c r="G20">
+      <c r="C21" s="5" t="n">
         <v>0.8865651077602764</v>
       </c>
-      <c r="H20">
+      <c r="D21" s="5" t="n">
         <v>1.061498561694252</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>C-Reactive Protein</t>
         </is>
       </c>
-      <c r="B21">
-        <v>0.001381130256065733</v>
-      </c>
-      <c r="C21">
+      <c r="B22" s="7" t="n">
         <v>1.001382084455699</v>
       </c>
-      <c r="D21">
-        <v>0.0001357753174489865</v>
-      </c>
-      <c r="E21">
-        <v>10.1721747517523</v>
-      </c>
-      <c r="F21">
-        <v>2.639485447892615e-24</v>
-      </c>
-      <c r="G21">
+      <c r="C22" s="7" t="n">
         <v>1.001115637384792</v>
       </c>
-      <c r="H21">
+      <c r="D22" s="7" t="n">
         <v>1.001648602441531</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>Glucose</t>
         </is>
       </c>
-      <c r="B22">
-        <v>0.001131109708523272</v>
-      </c>
-      <c r="C22">
+      <c r="B23" s="5" t="n">
         <v>1.00113174965437</v>
       </c>
-      <c r="D22">
-        <v>0.0001466655103891242</v>
-      </c>
-      <c r="E22">
-        <v>7.712172449557356</v>
-      </c>
-      <c r="F22">
-        <v>1.236938333067448e-14</v>
-      </c>
-      <c r="G22">
+      <c r="C23" s="5" t="n">
         <v>1.000844006563644</v>
       </c>
-      <c r="H22">
+      <c r="D23" s="5" t="n">
         <v>1.00141957547136</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Hematocrit</t>
         </is>
       </c>
-      <c r="B23">
-        <v>-0.006153405669399015</v>
-      </c>
-      <c r="C23">
+      <c r="B24" s="7" t="n">
         <v>0.9938654877584281</v>
       </c>
-      <c r="D23">
-        <v>0.001428948065246258</v>
-      </c>
-      <c r="E23">
-        <v>-4.306248644759924</v>
-      </c>
-      <c r="F23">
-        <v>1.660464084531796e-05</v>
-      </c>
-      <c r="G23">
+      <c r="C24" s="7" t="n">
         <v>0.9910858760895613</v>
       </c>
-      <c r="H23">
+      <c r="D24" s="7" t="n">
         <v>0.9966528951604557</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>Hemoglobin</t>
         </is>
       </c>
-      <c r="B24">
-        <v>0.09588760853692142</v>
-      </c>
-      <c r="C24">
+      <c r="B25" s="5" t="n">
         <v>1.100635355024326</v>
       </c>
-      <c r="D24">
-        <v>0.03555186247003164</v>
-      </c>
-      <c r="E24">
-        <v>2.697119134553068</v>
-      </c>
-      <c r="F24">
-        <v>0.006994224267105594</v>
-      </c>
-      <c r="G24">
+      <c r="C25" s="5" t="n">
         <v>1.026553667885822</v>
       </c>
-      <c r="H24">
+      <c r="D25" s="5" t="n">
         <v>1.180063178990328</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Normalized Prothrombin Time - INR</t>
         </is>
       </c>
-      <c r="B25">
-        <v>0.03832416922189831</v>
-      </c>
-      <c r="C25">
+      <c r="B26" s="7" t="n">
         <v>1.039068012157811</v>
       </c>
-      <c r="D25">
-        <v>0.01129013784549069</v>
-      </c>
-      <c r="E25">
-        <v>3.394481958181324</v>
-      </c>
-      <c r="F25">
-        <v>0.0006875857032585611</v>
-      </c>
-      <c r="G25">
+      <c r="C26" s="7" t="n">
         <v>1.016327770271456</v>
       </c>
-      <c r="H25">
+      <c r="D26" s="7" t="n">
         <v>1.062317064898474</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>Lactate Dehydrogenase</t>
         </is>
       </c>
-      <c r="B26">
-        <v>0.0006617897249856352</v>
-      </c>
-      <c r="C26">
+      <c r="B27" s="5" t="n">
         <v>1.00066200875612</v>
       </c>
-      <c r="D26">
-        <v>2.699602137410466e-05</v>
-      </c>
-      <c r="E26">
-        <v>24.51434290315248</v>
-      </c>
-      <c r="F26">
-        <v>1.038753469940433e-132</v>
-      </c>
-      <c r="G26">
+      <c r="C27" s="5" t="n">
         <v>1.000609063899505</v>
       </c>
-      <c r="H26">
+      <c r="D27" s="5" t="n">
         <v>1.000714956414188</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Mean Corpuscular Hemoglobin</t>
         </is>
       </c>
-      <c r="B27">
-        <v>-0.1997656950155339</v>
-      </c>
-      <c r="C27">
+      <c r="B28" s="7" t="n">
         <v>0.8189226082497976</v>
       </c>
-      <c r="D27">
-        <v>0.01758689842244199</v>
-      </c>
-      <c r="E27">
-        <v>-11.35877914440105</v>
-      </c>
-      <c r="F27">
-        <v>6.707543475137347e-30</v>
-      </c>
-      <c r="G27">
+      <c r="C28" s="7" t="n">
         <v>0.7911755650754813</v>
       </c>
-      <c r="H27">
+      <c r="D28" s="7" t="n">
         <v>0.8476427583284504</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>Mean Corpuscular Volume</t>
         </is>
       </c>
-      <c r="B28">
-        <v>0.05932552693440896</v>
-      </c>
-      <c r="C28">
+      <c r="B29" s="5" t="n">
         <v>1.061120607862475</v>
       </c>
-      <c r="D28">
-        <v>0.003809165857398793</v>
-      </c>
-      <c r="E28">
-        <v>15.57441423013311</v>
-      </c>
-      <c r="F28">
-        <v>1.086437406605626e-54</v>
-      </c>
-      <c r="G28">
+      <c r="C29" s="5" t="n">
         <v>1.053227963255393</v>
       </c>
-      <c r="H28">
+      <c r="D29" s="5" t="n">
         <v>1.069072398106652</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>Neutrophil Percentage</t>
         </is>
       </c>
-      <c r="B29">
-        <v>0.01449237877981889</v>
-      </c>
-      <c r="C29">
+      <c r="B30" s="7" t="n">
         <v>1.014597902447923</v>
       </c>
-      <c r="D29">
-        <v>0.001193970978563607</v>
-      </c>
-      <c r="E29">
-        <v>12.1379656959952</v>
-      </c>
-      <c r="F29">
-        <v>6.645779619186353e-34</v>
-      </c>
-      <c r="G29">
+      <c r="C30" s="7" t="n">
         <v>1.012226377127243</v>
       </c>
-      <c r="H29">
+      <c r="D30" s="7" t="n">
         <v>1.016974983968752</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>Platelet Count</t>
         </is>
       </c>
-      <c r="B30">
-        <v>-0.001332247806236261</v>
-      </c>
-      <c r="C30">
+      <c r="B31" s="5" t="n">
         <v>0.998668639241906</v>
       </c>
-      <c r="D30">
-        <v>0.0001398810904427234</v>
-      </c>
-      <c r="E30">
-        <v>-9.524145129407406</v>
-      </c>
-      <c r="F30">
-        <v>1.664058473006087e-21</v>
-      </c>
-      <c r="G30">
+      <c r="C31" s="5" t="n">
         <v>0.9983948798798223</v>
       </c>
-      <c r="H30">
+      <c r="D31" s="5" t="n">
         <v>0.9989424736686657</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>Red Blood Cell Count</t>
         </is>
       </c>
-      <c r="B31">
-        <v>-0.3588272019900326</v>
-      </c>
-      <c r="C31">
+      <c r="B32" s="7" t="n">
         <v>0.6984950394767331</v>
       </c>
-      <c r="D31">
-        <v>0.1074560820830007</v>
-      </c>
-      <c r="E31">
-        <v>-3.339291690468197</v>
-      </c>
-      <c r="F31">
-        <v>0.0008399231864736942</v>
-      </c>
-      <c r="G31">
+      <c r="C32" s="7" t="n">
         <v>0.5658437761242864</v>
       </c>
-      <c r="H31">
+      <c r="D32" s="7" t="n">
         <v>0.862243857333579</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>Sodium</t>
         </is>
       </c>
-      <c r="B32">
-        <v>0.01148112286977666</v>
-      </c>
-      <c r="C32">
+      <c r="B33" s="5" t="n">
         <v>1.011547283919561</v>
       </c>
-      <c r="D32">
-        <v>0.002233832410394333</v>
-      </c>
-      <c r="E32">
-        <v>5.139652740444359</v>
-      </c>
-      <c r="F32">
-        <v>2.752466733928884e-07</v>
-      </c>
-      <c r="G32">
+      <c r="C33" s="5" t="n">
         <v>1.007128177164808</v>
       </c>
-      <c r="H32">
+      <c r="D33" s="5" t="n">
         <v>1.015985780961423</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Urea</t>
         </is>
       </c>
-      <c r="B33">
-        <v>0.005657914390755477</v>
-      </c>
-      <c r="C33">
+      <c r="B34" s="7" t="n">
         <v>1.005673950617984</v>
       </c>
-      <c r="D33">
-        <v>0.0002331979112077105</v>
-      </c>
-      <c r="E33">
-        <v>24.26228589035665</v>
-      </c>
-      <c r="F33">
-        <v>4.905699425518927e-130</v>
-      </c>
-      <c r="G33">
+      <c r="C34" s="7" t="n">
         <v>1.005214402806021</v>
       </c>
-      <c r="H33">
+      <c r="D34" s="7" t="n">
         <v>1.00613370851865</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>